--- a/scientists-given-prior-for-the-website.xlsx
+++ b/scientists-given-prior-for-the-website.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Desktop\Git\DA-Code_Femiaculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F607E7-3166-4E0A-B966-E62E3579BFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4373BDAF-4EB8-4E86-A8F5-B0628BCA2A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92014F9E-F35E-424B-B676-9B4C8F84CE71}"/>
   </bookViews>
@@ -175,9 +175,6 @@
     <t>Status Quo Husband's Workforce investment (Dollar/Month)</t>
   </si>
   <si>
-    <t>Education investment: Within the model, a farm woman who chooses to change her status quo first must invest in some form of education or training. This investment is estimated here.</t>
-  </si>
-  <si>
     <t>Economy payout: Here the range of the monetary gain from the prior investment is calculated.</t>
   </si>
   <si>
@@ -241,6 +238,9 @@
   </si>
   <si>
     <t>Months of receiving money (This  inputs is constant: No range should be set.) It calculates how long a farm can receive the payback/studies research the paypack.</t>
+  </si>
+  <si>
+    <t>General personal investment costs of education or training (travel, books, child care, farm help etc.) for farm women in low or middle income countries in the case that they have access to and choose to take part in education opportunities. This is over an investment phase of three months.</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,9 +631,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="3" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
         <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="14" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
@@ -1046,12 +1046,12 @@
     </row>
     <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
